--- a/Milestone 3 PLAN.xlsx
+++ b/Milestone 3 PLAN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4110\m3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 3" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="118">
   <si>
     <t>Teammate</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>Technical Document's Management</t>
-  </si>
-  <si>
-    <t>Graphs, Diagrams, and Project 2013 file</t>
   </si>
   <si>
     <t>Full research and development of documents for the Milestone binder</t>
@@ -409,6 +406,27 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>Graphs, Diagrams, and Project 2016 file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appendicies </t>
+  </si>
+  <si>
+    <t>Brevan/Matt</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Should have been done</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -970,6 +988,12 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,12 +1033,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1302,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,64 +1342,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="30"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1391,39 +1409,39 @@
       <c r="C3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="38" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38" t="s">
+      <c r="L3" s="44"/>
+      <c r="M3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38" t="s">
+      <c r="N3" s="44"/>
+      <c r="O3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38" t="s">
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="37" t="s">
+      <c r="R3" s="44"/>
+      <c r="S3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="37"/>
+      <c r="T3" s="43"/>
     </row>
     <row r="4" spans="1:20" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1433,39 +1451,39 @@
       <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="37" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" s="44"/>
+      <c r="S4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="37"/>
+      <c r="T4" s="43"/>
     </row>
     <row r="5" spans="1:20" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1475,39 +1493,39 @@
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="37" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="44"/>
+      <c r="S5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="37"/>
+      <c r="T5" s="43"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1517,37 +1535,37 @@
       <c r="C6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="36" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36" t="s">
+      <c r="L6" s="42"/>
+      <c r="M6" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36" t="s">
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="36"/>
-      <c r="S6" s="37" t="s">
+      <c r="R6" s="42"/>
+      <c r="S6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="37"/>
+      <c r="T6" s="43"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -1557,37 +1575,37 @@
       <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="36" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36" t="s">
+      <c r="L7" s="42"/>
+      <c r="M7" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36" t="s">
+      <c r="N7" s="42"/>
+      <c r="O7" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36" t="s">
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37" t="s">
+      <c r="R7" s="42"/>
+      <c r="S7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="37"/>
+      <c r="T7" s="43"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -1597,37 +1615,37 @@
       <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="36" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36" t="s">
+      <c r="H8" s="42"/>
+      <c r="I8" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36" t="s">
+      <c r="J8" s="42"/>
+      <c r="K8" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36" t="s">
+      <c r="L8" s="42"/>
+      <c r="M8" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36" t="s">
+      <c r="N8" s="42"/>
+      <c r="O8" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36" t="s">
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="36"/>
-      <c r="S8" s="37" t="s">
+      <c r="R8" s="42"/>
+      <c r="S8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="37"/>
+      <c r="T8" s="43"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -1637,37 +1655,37 @@
       <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="36" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36" t="s">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36" t="s">
+      <c r="N9" s="42"/>
+      <c r="O9" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36" t="s">
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="37" t="s">
+      <c r="R9" s="42"/>
+      <c r="S9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="37"/>
+      <c r="T9" s="43"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -1677,797 +1695,837 @@
       <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="36" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36" t="s">
+      <c r="L10" s="42"/>
+      <c r="M10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36" t="s">
+      <c r="N10" s="42"/>
+      <c r="O10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36" t="s">
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="37" t="s">
+      <c r="R10" s="42"/>
+      <c r="S10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="37"/>
+      <c r="T10" s="43"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="36"/>
-      <c r="S11" s="37" t="s">
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T11" s="37"/>
+      <c r="T11" s="43"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="37" t="s">
+      <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="37"/>
+      <c r="T12" s="43"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="37" t="s">
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="37"/>
+      <c r="T13" s="43"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R14" s="36"/>
-      <c r="S14" s="37" t="s">
+      <c r="C14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="37"/>
+      <c r="T14" s="43"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="36"/>
-      <c r="S15" s="37" t="s">
+      <c r="C15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="37"/>
+      <c r="T15" s="43"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="37" t="s">
+      <c r="C16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="37"/>
+      <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="36"/>
-      <c r="S17" s="37" t="s">
+      <c r="C17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T17" s="37"/>
+      <c r="T17" s="43"/>
     </row>
     <row r="18" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37" t="s">
+      <c r="C18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="37"/>
+      <c r="T18" s="43"/>
     </row>
     <row r="19" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R19" s="36"/>
-      <c r="S19" s="37" t="s">
+      <c r="C19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T19" s="37"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R20" s="36"/>
-      <c r="S20" s="37" t="s">
+      <c r="C20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" s="42"/>
+      <c r="S20" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="37"/>
+      <c r="T20" s="43"/>
     </row>
     <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R21" s="36"/>
-      <c r="S21" s="37" t="s">
+      <c r="C21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="37"/>
+      <c r="T21" s="43"/>
     </row>
     <row r="22" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37" t="s">
+      <c r="C22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="37"/>
+      <c r="T22" s="43"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23" s="36"/>
-      <c r="S23" s="37" t="s">
+      <c r="C23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="42"/>
+      <c r="S23" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T23" s="37"/>
+      <c r="T23" s="43"/>
     </row>
     <row r="24" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R24" s="36"/>
-      <c r="S24" s="37" t="s">
+      <c r="C24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="42"/>
+      <c r="S24" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="37"/>
+      <c r="T24" s="43"/>
     </row>
     <row r="25" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" s="36"/>
-      <c r="S25" s="37" t="s">
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="42"/>
+      <c r="S25" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T25" s="37"/>
+      <c r="T25" s="43"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R26" s="36"/>
-      <c r="S26" s="37" t="s">
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="37"/>
+      <c r="T26" s="43"/>
     </row>
     <row r="27" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="37" t="s">
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" s="42"/>
+      <c r="S27" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T27" s="37"/>
+      <c r="T27" s="43"/>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R28" s="36"/>
-      <c r="S28" s="37" t="s">
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" s="42"/>
+      <c r="S28" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T28" s="37"/>
+      <c r="T28" s="43"/>
     </row>
     <row r="29" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R29" s="36"/>
-      <c r="S29" s="37" t="s">
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" s="42"/>
+      <c r="S29" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="37"/>
+      <c r="T29" s="43"/>
     </row>
     <row r="30" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30" s="36"/>
-      <c r="S30" s="37" t="s">
+      <c r="C30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" s="42"/>
+      <c r="S30" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T30" s="37"/>
+      <c r="T30" s="43"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -2477,37 +2535,37 @@
       <c r="C31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R31" s="36"/>
-      <c r="S31" s="37" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" s="42"/>
+      <c r="S31" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T31" s="37"/>
+      <c r="T31" s="43"/>
     </row>
     <row r="32" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
@@ -2517,37 +2575,37 @@
       <c r="C32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R32" s="36"/>
-      <c r="S32" s="37" t="s">
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="42"/>
+      <c r="S32" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="37"/>
+      <c r="T32" s="43"/>
     </row>
     <row r="33" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
@@ -2557,37 +2615,37 @@
       <c r="C33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R33" s="36"/>
-      <c r="S33" s="37" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" s="42"/>
+      <c r="S33" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="37"/>
+      <c r="T33" s="43"/>
     </row>
     <row r="34" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
@@ -2597,75 +2655,77 @@
       <c r="C34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R34" s="36"/>
-      <c r="S34" s="37" t="s">
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" s="42"/>
+      <c r="S34" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="37"/>
+      <c r="T34" s="43"/>
     </row>
     <row r="35" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R35" s="36"/>
-      <c r="S35" s="37" t="s">
+      <c r="C35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" s="42"/>
+      <c r="S35" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="37"/>
+      <c r="T35" s="43"/>
     </row>
     <row r="36" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
@@ -2673,39 +2733,39 @@
         <v>37</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R36" s="36"/>
-      <c r="S36" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" s="42"/>
+      <c r="S36" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T36" s="37"/>
+      <c r="T36" s="43"/>
     </row>
     <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
@@ -2713,229 +2773,239 @@
         <v>38</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R37" s="36"/>
-      <c r="S37" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R37" s="42"/>
+      <c r="S37" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T37" s="37"/>
+      <c r="T37" s="43"/>
     </row>
     <row r="38" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R38" s="36"/>
-      <c r="S38" s="37" t="s">
+      <c r="C38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R38" s="42"/>
+      <c r="S38" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T38" s="37"/>
+      <c r="T38" s="43"/>
     </row>
     <row r="39" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R39" s="36"/>
-      <c r="S39" s="37" t="s">
+      <c r="C39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" s="42"/>
+      <c r="S39" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T39" s="37"/>
+      <c r="T39" s="43"/>
     </row>
     <row r="40" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R40" s="36"/>
-      <c r="S40" s="37" t="s">
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40" s="42"/>
+      <c r="S40" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T40" s="37"/>
+      <c r="T40" s="43"/>
     </row>
     <row r="41" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R41" s="36"/>
-      <c r="S41" s="37" t="s">
+      <c r="C41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" s="42"/>
+      <c r="S41" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="37"/>
+      <c r="T41" s="43"/>
     </row>
     <row r="42" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35" t="s">
+      <c r="C42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35" t="s">
+      <c r="H42" s="41"/>
+      <c r="I42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35" t="s">
+      <c r="J42" s="41"/>
+      <c r="K42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35" t="s">
+      <c r="L42" s="41"/>
+      <c r="M42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35" t="s">
+      <c r="N42" s="41"/>
+      <c r="O42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36" t="s">
+      <c r="P42" s="41"/>
+      <c r="Q42" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="36"/>
-      <c r="S42" s="37" t="s">
+      <c r="R42" s="42"/>
+      <c r="S42" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="37"/>
+      <c r="T42" s="43"/>
     </row>
     <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2949,19 +3019,19 @@
         <v>71</v>
       </c>
       <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
         <v>97</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>98</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>99</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>100</v>
-      </c>
-      <c r="H44" t="s">
-        <v>101</v>
       </c>
       <c r="I44" t="s">
         <v>4</v>
@@ -2983,23 +3053,23 @@
       </c>
       <c r="D45" s="11">
         <f ca="1">DATEVALUE("11/12/2016")-TODAY()</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E45" s="24">
         <f ca="1">DATEVALUE("10/20/2016")-TODAY()</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F45" s="24">
         <f ca="1">DATEVALUE("10/27/2016")-TODAY()</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G45" s="24">
         <f ca="1">DATEVALUE("11/3/2016")-TODAY()</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H45" s="24">
         <f ca="1">DATEVALUE("11/10/2016")-TODAY()</f>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3019,6 +3089,16 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
@@ -3053,9 +3133,6 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -3067,11 +3144,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:P7"/>
@@ -3083,8 +3155,6 @@
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
@@ -3469,13 +3539,15 @@
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -3523,14 +3595,14 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3569,7 +3641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -3581,19 +3653,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3602,7 +3674,7 @@
         <v>42656</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -3611,7 +3683,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3620,7 +3692,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3629,7 +3701,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4344,8 +4416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4357,25 +4429,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4386,16 +4458,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
@@ -4403,10 +4475,10 @@
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+        <v>106</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
@@ -4414,10 +4486,10 @@
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+        <v>104</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
@@ -4425,10 +4497,10 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+        <v>105</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -4436,8 +4508,8 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -4445,8 +4517,8 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -4454,8 +4526,8 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -4463,8 +4535,8 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4472,8 +4544,8 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -4481,8 +4553,8 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4490,8 +4562,8 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -4499,8 +4571,8 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -4508,8 +4580,8 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -4517,8 +4589,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -4526,8 +4598,8 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -4535,8 +4607,8 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -4544,8 +4616,8 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -4553,8 +4625,8 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -4562,8 +4634,8 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4571,8 +4643,8 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -4580,8 +4652,8 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -4589,8 +4661,8 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -4598,8 +4670,8 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -4607,8 +4679,8 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -4616,8 +4688,8 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4625,8 +4697,8 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -4634,8 +4706,8 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
@@ -4643,8 +4715,8 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
@@ -4652,8 +4724,8 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4661,8 +4733,8 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
@@ -4670,8 +4742,8 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -4679,8 +4751,8 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="44"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
@@ -4688,8 +4760,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="44"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
@@ -4697,8 +4769,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4706,8 +4778,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="44"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
@@ -4715,8 +4787,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -4724,8 +4796,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -4733,8 +4805,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -4742,8 +4814,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
@@ -4751,8 +4823,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
@@ -4760,8 +4832,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="44"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
@@ -4769,8 +4841,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
@@ -4778,8 +4850,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4787,8 +4859,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="44"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -4796,8 +4868,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="44"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4805,8 +4877,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="44"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="31"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
@@ -4814,8 +4886,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
@@ -4823,8 +4895,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="44"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
@@ -4832,8 +4904,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
@@ -4889,2598 +4961,2607 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
     </row>
     <row r="30" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
     </row>
     <row r="31" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
     </row>
     <row r="32" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
     </row>
     <row r="33" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
     </row>
     <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
     </row>
     <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="45"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
-      <c r="F111" s="39"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="45"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="39"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="45"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="45"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="45"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="45"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="45"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="39"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
+      <c r="I119" s="45"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
+      <c r="A120" s="45"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="45"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="45"/>
+      <c r="I120" s="45"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="39"/>
+      <c r="A121" s="45"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
+      <c r="A122" s="45"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="45"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="39"/>
+      <c r="A123" s="45"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="45"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
+      <c r="A124" s="45"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="45"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
+      <c r="A125" s="45"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="45"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
+      <c r="A126" s="45"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="45"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="39"/>
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="45"/>
+      <c r="I127" s="45"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="39"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="39"/>
-      <c r="I128" s="39"/>
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="45"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
-      <c r="F129" s="39"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="39"/>
+      <c r="A129" s="45"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="45"/>
+      <c r="I129" s="45"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
+      <c r="A130" s="45"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="45"/>
+      <c r="I130" s="45"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
+      <c r="A131" s="45"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="45"/>
+      <c r="I131" s="45"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="39"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
+      <c r="A132" s="45"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="45"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="45"/>
+      <c r="I132" s="45"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
-      <c r="B133" s="39"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
+      <c r="A133" s="45"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="45"/>
+      <c r="I133" s="45"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
-      <c r="B134" s="39"/>
-      <c r="C134" s="39"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="39"/>
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="45"/>
+      <c r="I134" s="45"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
-      <c r="B135" s="39"/>
-      <c r="C135" s="39"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
-      <c r="F135" s="39"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="39"/>
-      <c r="I135" s="39"/>
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="45"/>
+      <c r="I135" s="45"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
-      <c r="F136" s="39"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="39"/>
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="39"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="39"/>
-      <c r="I137" s="39"/>
+      <c r="A137" s="45"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="45"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
-      <c r="F138" s="39"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="39"/>
+      <c r="A138" s="45"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="45"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
-      <c r="F139" s="39"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="39"/>
+      <c r="A139" s="45"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="45"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
-      <c r="F140" s="39"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="39"/>
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="45"/>
+      <c r="I140" s="45"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
-      <c r="B141" s="39"/>
-      <c r="C141" s="39"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
-      <c r="F141" s="39"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="39"/>
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="45"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="39"/>
+      <c r="A142" s="45"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="45"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="39"/>
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
-      <c r="F143" s="39"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="39"/>
-      <c r="I143" s="39"/>
+      <c r="A143" s="45"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="45"/>
+      <c r="I143" s="45"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="39"/>
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="39"/>
+      <c r="A144" s="45"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="45"/>
+      <c r="I144" s="45"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="39"/>
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="45"/>
+      <c r="I145" s="45"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
-      <c r="B146" s="39"/>
-      <c r="C146" s="39"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
-      <c r="F146" s="39"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="39"/>
-      <c r="I146" s="39"/>
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="45"/>
+      <c r="I146" s="45"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="39"/>
-      <c r="B147" s="39"/>
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="39"/>
-      <c r="I147" s="39"/>
+      <c r="A147" s="45"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="45"/>
+      <c r="I147" s="45"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="39"/>
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
-      <c r="F148" s="39"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="39"/>
-      <c r="I148" s="39"/>
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="45"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="39"/>
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="39"/>
-      <c r="I149" s="39"/>
+      <c r="A149" s="45"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="45"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
-      <c r="F150" s="39"/>
-      <c r="G150" s="39"/>
-      <c r="H150" s="39"/>
-      <c r="I150" s="39"/>
+      <c r="A150" s="45"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="45"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="39"/>
-      <c r="F151" s="39"/>
-      <c r="G151" s="39"/>
-      <c r="H151" s="39"/>
-      <c r="I151" s="39"/>
+      <c r="A151" s="45"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="45"/>
+      <c r="I151" s="45"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="39"/>
-      <c r="B152" s="39"/>
-      <c r="C152" s="39"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
-      <c r="F152" s="39"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="39"/>
-      <c r="I152" s="39"/>
+      <c r="A152" s="45"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="45"/>
+      <c r="E152" s="45"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="45"/>
+      <c r="I152" s="45"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="39"/>
-      <c r="B153" s="39"/>
-      <c r="C153" s="39"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
-      <c r="F153" s="39"/>
-      <c r="G153" s="39"/>
-      <c r="H153" s="39"/>
-      <c r="I153" s="39"/>
+      <c r="A153" s="45"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="45"/>
+      <c r="D153" s="45"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="45"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="39"/>
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
-      <c r="F154" s="39"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="39"/>
-      <c r="I154" s="39"/>
+      <c r="A154" s="45"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="45"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="45"/>
+      <c r="I154" s="45"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
-      <c r="B155" s="39"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
-      <c r="F155" s="39"/>
-      <c r="G155" s="39"/>
-      <c r="H155" s="39"/>
-      <c r="I155" s="39"/>
+      <c r="A155" s="45"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="45"/>
+      <c r="E155" s="45"/>
+      <c r="F155" s="45"/>
+      <c r="G155" s="45"/>
+      <c r="H155" s="45"/>
+      <c r="I155" s="45"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
-      <c r="B156" s="39"/>
-      <c r="C156" s="39"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="39"/>
-      <c r="F156" s="39"/>
-      <c r="G156" s="39"/>
-      <c r="H156" s="39"/>
-      <c r="I156" s="39"/>
+      <c r="A156" s="45"/>
+      <c r="B156" s="45"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="45"/>
+      <c r="E156" s="45"/>
+      <c r="F156" s="45"/>
+      <c r="G156" s="45"/>
+      <c r="H156" s="45"/>
+      <c r="I156" s="45"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="39"/>
-      <c r="B157" s="39"/>
-      <c r="C157" s="39"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="39"/>
-      <c r="F157" s="39"/>
-      <c r="G157" s="39"/>
-      <c r="H157" s="39"/>
-      <c r="I157" s="39"/>
+      <c r="A157" s="45"/>
+      <c r="B157" s="45"/>
+      <c r="C157" s="45"/>
+      <c r="D157" s="45"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="45"/>
+      <c r="H157" s="45"/>
+      <c r="I157" s="45"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="39"/>
-      <c r="B158" s="39"/>
-      <c r="C158" s="39"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
-      <c r="F158" s="39"/>
-      <c r="G158" s="39"/>
-      <c r="H158" s="39"/>
-      <c r="I158" s="39"/>
+      <c r="A158" s="45"/>
+      <c r="B158" s="45"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="45"/>
+      <c r="E158" s="45"/>
+      <c r="F158" s="45"/>
+      <c r="G158" s="45"/>
+      <c r="H158" s="45"/>
+      <c r="I158" s="45"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="39"/>
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
-      <c r="F159" s="39"/>
-      <c r="G159" s="39"/>
-      <c r="H159" s="39"/>
-      <c r="I159" s="39"/>
+      <c r="A159" s="45"/>
+      <c r="B159" s="45"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="45"/>
+      <c r="E159" s="45"/>
+      <c r="F159" s="45"/>
+      <c r="G159" s="45"/>
+      <c r="H159" s="45"/>
+      <c r="I159" s="45"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="39"/>
-      <c r="B160" s="39"/>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
-      <c r="F160" s="39"/>
-      <c r="G160" s="39"/>
-      <c r="H160" s="39"/>
-      <c r="I160" s="39"/>
+      <c r="A160" s="45"/>
+      <c r="B160" s="45"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="45"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="45"/>
+      <c r="I160" s="45"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
-      <c r="D161" s="39"/>
-      <c r="E161" s="39"/>
-      <c r="F161" s="39"/>
-      <c r="G161" s="39"/>
-      <c r="H161" s="39"/>
-      <c r="I161" s="39"/>
+      <c r="A161" s="45"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="45"/>
+      <c r="I161" s="45"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="39"/>
-      <c r="B162" s="39"/>
-      <c r="C162" s="39"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="39"/>
-      <c r="F162" s="39"/>
-      <c r="G162" s="39"/>
-      <c r="H162" s="39"/>
-      <c r="I162" s="39"/>
+      <c r="A162" s="45"/>
+      <c r="B162" s="45"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="45"/>
+      <c r="E162" s="45"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="45"/>
+      <c r="I162" s="45"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="39"/>
-      <c r="B163" s="39"/>
-      <c r="C163" s="39"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39"/>
-      <c r="F163" s="39"/>
-      <c r="G163" s="39"/>
-      <c r="H163" s="39"/>
-      <c r="I163" s="39"/>
+      <c r="A163" s="45"/>
+      <c r="B163" s="45"/>
+      <c r="C163" s="45"/>
+      <c r="D163" s="45"/>
+      <c r="E163" s="45"/>
+      <c r="F163" s="45"/>
+      <c r="G163" s="45"/>
+      <c r="H163" s="45"/>
+      <c r="I163" s="45"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="39"/>
-      <c r="B164" s="39"/>
-      <c r="C164" s="39"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39"/>
-      <c r="F164" s="39"/>
-      <c r="G164" s="39"/>
-      <c r="H164" s="39"/>
-      <c r="I164" s="39"/>
+      <c r="A164" s="45"/>
+      <c r="B164" s="45"/>
+      <c r="C164" s="45"/>
+      <c r="D164" s="45"/>
+      <c r="E164" s="45"/>
+      <c r="F164" s="45"/>
+      <c r="G164" s="45"/>
+      <c r="H164" s="45"/>
+      <c r="I164" s="45"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="39"/>
-      <c r="B165" s="39"/>
-      <c r="C165" s="39"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
-      <c r="F165" s="39"/>
-      <c r="G165" s="39"/>
-      <c r="H165" s="39"/>
-      <c r="I165" s="39"/>
+      <c r="A165" s="45"/>
+      <c r="B165" s="45"/>
+      <c r="C165" s="45"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="45"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="45"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="39"/>
-      <c r="B166" s="39"/>
-      <c r="C166" s="39"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="39"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="39"/>
-      <c r="I166" s="39"/>
+      <c r="A166" s="45"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="45"/>
+      <c r="D166" s="45"/>
+      <c r="E166" s="45"/>
+      <c r="F166" s="45"/>
+      <c r="G166" s="45"/>
+      <c r="H166" s="45"/>
+      <c r="I166" s="45"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="39"/>
-      <c r="B167" s="39"/>
-      <c r="C167" s="39"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
-      <c r="F167" s="39"/>
-      <c r="G167" s="39"/>
-      <c r="H167" s="39"/>
-      <c r="I167" s="39"/>
+      <c r="A167" s="45"/>
+      <c r="B167" s="45"/>
+      <c r="C167" s="45"/>
+      <c r="D167" s="45"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="45"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="45"/>
+      <c r="I167" s="45"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="39"/>
-      <c r="B168" s="39"/>
-      <c r="C168" s="39"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
-      <c r="F168" s="39"/>
-      <c r="G168" s="39"/>
-      <c r="H168" s="39"/>
-      <c r="I168" s="39"/>
+      <c r="A168" s="45"/>
+      <c r="B168" s="45"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="45"/>
+      <c r="E168" s="45"/>
+      <c r="F168" s="45"/>
+      <c r="G168" s="45"/>
+      <c r="H168" s="45"/>
+      <c r="I168" s="45"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="39"/>
-      <c r="B169" s="39"/>
-      <c r="C169" s="39"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="39"/>
-      <c r="F169" s="39"/>
-      <c r="G169" s="39"/>
-      <c r="H169" s="39"/>
-      <c r="I169" s="39"/>
+      <c r="A169" s="45"/>
+      <c r="B169" s="45"/>
+      <c r="C169" s="45"/>
+      <c r="D169" s="45"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="45"/>
+      <c r="H169" s="45"/>
+      <c r="I169" s="45"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
-      <c r="B170" s="39"/>
-      <c r="C170" s="39"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="39"/>
-      <c r="F170" s="39"/>
-      <c r="G170" s="39"/>
-      <c r="H170" s="39"/>
-      <c r="I170" s="39"/>
+      <c r="A170" s="45"/>
+      <c r="B170" s="45"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="45"/>
+      <c r="F170" s="45"/>
+      <c r="G170" s="45"/>
+      <c r="H170" s="45"/>
+      <c r="I170" s="45"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="39"/>
-      <c r="B171" s="39"/>
-      <c r="C171" s="39"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
-      <c r="F171" s="39"/>
-      <c r="G171" s="39"/>
-      <c r="H171" s="39"/>
-      <c r="I171" s="39"/>
+      <c r="A171" s="45"/>
+      <c r="B171" s="45"/>
+      <c r="C171" s="45"/>
+      <c r="D171" s="45"/>
+      <c r="E171" s="45"/>
+      <c r="F171" s="45"/>
+      <c r="G171" s="45"/>
+      <c r="H171" s="45"/>
+      <c r="I171" s="45"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
-      <c r="F172" s="39"/>
-      <c r="G172" s="39"/>
-      <c r="H172" s="39"/>
-      <c r="I172" s="39"/>
+      <c r="A172" s="45"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="45"/>
+      <c r="D172" s="45"/>
+      <c r="E172" s="45"/>
+      <c r="F172" s="45"/>
+      <c r="G172" s="45"/>
+      <c r="H172" s="45"/>
+      <c r="I172" s="45"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
-      <c r="C173" s="39"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
-      <c r="F173" s="39"/>
-      <c r="G173" s="39"/>
-      <c r="H173" s="39"/>
-      <c r="I173" s="39"/>
+      <c r="A173" s="45"/>
+      <c r="B173" s="45"/>
+      <c r="C173" s="45"/>
+      <c r="D173" s="45"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="45"/>
+      <c r="G173" s="45"/>
+      <c r="H173" s="45"/>
+      <c r="I173" s="45"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="39"/>
-      <c r="B174" s="39"/>
-      <c r="C174" s="39"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="39"/>
-      <c r="F174" s="39"/>
-      <c r="G174" s="39"/>
-      <c r="H174" s="39"/>
-      <c r="I174" s="39"/>
+      <c r="A174" s="45"/>
+      <c r="B174" s="45"/>
+      <c r="C174" s="45"/>
+      <c r="D174" s="45"/>
+      <c r="E174" s="45"/>
+      <c r="F174" s="45"/>
+      <c r="G174" s="45"/>
+      <c r="H174" s="45"/>
+      <c r="I174" s="45"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="39"/>
-      <c r="B175" s="39"/>
-      <c r="C175" s="39"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="39"/>
-      <c r="F175" s="39"/>
-      <c r="G175" s="39"/>
-      <c r="H175" s="39"/>
-      <c r="I175" s="39"/>
+      <c r="A175" s="45"/>
+      <c r="B175" s="45"/>
+      <c r="C175" s="45"/>
+      <c r="D175" s="45"/>
+      <c r="E175" s="45"/>
+      <c r="F175" s="45"/>
+      <c r="G175" s="45"/>
+      <c r="H175" s="45"/>
+      <c r="I175" s="45"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="39"/>
-      <c r="B176" s="39"/>
-      <c r="C176" s="39"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="39"/>
-      <c r="F176" s="39"/>
-      <c r="G176" s="39"/>
-      <c r="H176" s="39"/>
-      <c r="I176" s="39"/>
+      <c r="A176" s="45"/>
+      <c r="B176" s="45"/>
+      <c r="C176" s="45"/>
+      <c r="D176" s="45"/>
+      <c r="E176" s="45"/>
+      <c r="F176" s="45"/>
+      <c r="G176" s="45"/>
+      <c r="H176" s="45"/>
+      <c r="I176" s="45"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="39"/>
-      <c r="B177" s="39"/>
-      <c r="C177" s="39"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
-      <c r="F177" s="39"/>
-      <c r="G177" s="39"/>
-      <c r="H177" s="39"/>
-      <c r="I177" s="39"/>
+      <c r="A177" s="45"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="45"/>
+      <c r="D177" s="45"/>
+      <c r="E177" s="45"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="45"/>
+      <c r="H177" s="45"/>
+      <c r="I177" s="45"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="39"/>
-      <c r="B178" s="39"/>
-      <c r="C178" s="39"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="39"/>
-      <c r="F178" s="39"/>
-      <c r="G178" s="39"/>
-      <c r="H178" s="39"/>
-      <c r="I178" s="39"/>
+      <c r="A178" s="45"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="45"/>
+      <c r="E178" s="45"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="45"/>
+      <c r="H178" s="45"/>
+      <c r="I178" s="45"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="39"/>
-      <c r="B179" s="39"/>
-      <c r="C179" s="39"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="39"/>
-      <c r="F179" s="39"/>
-      <c r="G179" s="39"/>
-      <c r="H179" s="39"/>
-      <c r="I179" s="39"/>
+      <c r="A179" s="45"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="45"/>
+      <c r="D179" s="45"/>
+      <c r="E179" s="45"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="45"/>
+      <c r="H179" s="45"/>
+      <c r="I179" s="45"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="39"/>
-      <c r="B180" s="39"/>
-      <c r="C180" s="39"/>
-      <c r="D180" s="39"/>
-      <c r="E180" s="39"/>
-      <c r="F180" s="39"/>
-      <c r="G180" s="39"/>
-      <c r="H180" s="39"/>
-      <c r="I180" s="39"/>
+      <c r="A180" s="45"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="45"/>
+      <c r="D180" s="45"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="45"/>
+      <c r="G180" s="45"/>
+      <c r="H180" s="45"/>
+      <c r="I180" s="45"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="39"/>
-      <c r="B181" s="39"/>
-      <c r="C181" s="39"/>
-      <c r="D181" s="39"/>
-      <c r="E181" s="39"/>
-      <c r="F181" s="39"/>
-      <c r="G181" s="39"/>
-      <c r="H181" s="39"/>
-      <c r="I181" s="39"/>
+      <c r="A181" s="45"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="45"/>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="45"/>
+      <c r="G181" s="45"/>
+      <c r="H181" s="45"/>
+      <c r="I181" s="45"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="39"/>
-      <c r="B182" s="39"/>
-      <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
-      <c r="E182" s="39"/>
-      <c r="F182" s="39"/>
-      <c r="G182" s="39"/>
-      <c r="H182" s="39"/>
-      <c r="I182" s="39"/>
+      <c r="A182" s="45"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="45"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="45"/>
+      <c r="F182" s="45"/>
+      <c r="G182" s="45"/>
+      <c r="H182" s="45"/>
+      <c r="I182" s="45"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="39"/>
-      <c r="B183" s="39"/>
-      <c r="C183" s="39"/>
-      <c r="D183" s="39"/>
-      <c r="E183" s="39"/>
-      <c r="F183" s="39"/>
-      <c r="G183" s="39"/>
-      <c r="H183" s="39"/>
-      <c r="I183" s="39"/>
+      <c r="A183" s="45"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="45"/>
+      <c r="D183" s="45"/>
+      <c r="E183" s="45"/>
+      <c r="F183" s="45"/>
+      <c r="G183" s="45"/>
+      <c r="H183" s="45"/>
+      <c r="I183" s="45"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="39"/>
-      <c r="B184" s="39"/>
-      <c r="C184" s="39"/>
-      <c r="D184" s="39"/>
-      <c r="E184" s="39"/>
-      <c r="F184" s="39"/>
-      <c r="G184" s="39"/>
-      <c r="H184" s="39"/>
-      <c r="I184" s="39"/>
+      <c r="A184" s="45"/>
+      <c r="B184" s="45"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="45"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="45"/>
+      <c r="G184" s="45"/>
+      <c r="H184" s="45"/>
+      <c r="I184" s="45"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="39"/>
-      <c r="B185" s="39"/>
-      <c r="C185" s="39"/>
-      <c r="D185" s="39"/>
-      <c r="E185" s="39"/>
-      <c r="F185" s="39"/>
-      <c r="G185" s="39"/>
-      <c r="H185" s="39"/>
-      <c r="I185" s="39"/>
+      <c r="A185" s="45"/>
+      <c r="B185" s="45"/>
+      <c r="C185" s="45"/>
+      <c r="D185" s="45"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="45"/>
+      <c r="G185" s="45"/>
+      <c r="H185" s="45"/>
+      <c r="I185" s="45"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="39"/>
-      <c r="B186" s="39"/>
-      <c r="C186" s="39"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="39"/>
-      <c r="F186" s="39"/>
-      <c r="G186" s="39"/>
-      <c r="H186" s="39"/>
-      <c r="I186" s="39"/>
+      <c r="A186" s="45"/>
+      <c r="B186" s="45"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="45"/>
+      <c r="E186" s="45"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="45"/>
+      <c r="H186" s="45"/>
+      <c r="I186" s="45"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="39"/>
-      <c r="B187" s="39"/>
-      <c r="C187" s="39"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="39"/>
-      <c r="F187" s="39"/>
-      <c r="G187" s="39"/>
-      <c r="H187" s="39"/>
-      <c r="I187" s="39"/>
+      <c r="A187" s="45"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="45"/>
+      <c r="E187" s="45"/>
+      <c r="F187" s="45"/>
+      <c r="G187" s="45"/>
+      <c r="H187" s="45"/>
+      <c r="I187" s="45"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="39"/>
-      <c r="B188" s="39"/>
-      <c r="C188" s="39"/>
-      <c r="D188" s="39"/>
-      <c r="E188" s="39"/>
-      <c r="F188" s="39"/>
-      <c r="G188" s="39"/>
-      <c r="H188" s="39"/>
-      <c r="I188" s="39"/>
+      <c r="A188" s="45"/>
+      <c r="B188" s="45"/>
+      <c r="C188" s="45"/>
+      <c r="D188" s="45"/>
+      <c r="E188" s="45"/>
+      <c r="F188" s="45"/>
+      <c r="G188" s="45"/>
+      <c r="H188" s="45"/>
+      <c r="I188" s="45"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="39"/>
-      <c r="B189" s="39"/>
-      <c r="C189" s="39"/>
-      <c r="D189" s="39"/>
-      <c r="E189" s="39"/>
-      <c r="F189" s="39"/>
-      <c r="G189" s="39"/>
-      <c r="H189" s="39"/>
-      <c r="I189" s="39"/>
+      <c r="A189" s="45"/>
+      <c r="B189" s="45"/>
+      <c r="C189" s="45"/>
+      <c r="D189" s="45"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="45"/>
+      <c r="H189" s="45"/>
+      <c r="I189" s="45"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="39"/>
-      <c r="B190" s="39"/>
-      <c r="C190" s="39"/>
-      <c r="D190" s="39"/>
-      <c r="E190" s="39"/>
-      <c r="F190" s="39"/>
-      <c r="G190" s="39"/>
-      <c r="H190" s="39"/>
-      <c r="I190" s="39"/>
+      <c r="A190" s="45"/>
+      <c r="B190" s="45"/>
+      <c r="C190" s="45"/>
+      <c r="D190" s="45"/>
+      <c r="E190" s="45"/>
+      <c r="F190" s="45"/>
+      <c r="G190" s="45"/>
+      <c r="H190" s="45"/>
+      <c r="I190" s="45"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="39"/>
-      <c r="B191" s="39"/>
-      <c r="C191" s="39"/>
-      <c r="D191" s="39"/>
-      <c r="E191" s="39"/>
-      <c r="F191" s="39"/>
-      <c r="G191" s="39"/>
-      <c r="H191" s="39"/>
-      <c r="I191" s="39"/>
+      <c r="A191" s="45"/>
+      <c r="B191" s="45"/>
+      <c r="C191" s="45"/>
+      <c r="D191" s="45"/>
+      <c r="E191" s="45"/>
+      <c r="F191" s="45"/>
+      <c r="G191" s="45"/>
+      <c r="H191" s="45"/>
+      <c r="I191" s="45"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="39"/>
-      <c r="B192" s="39"/>
-      <c r="C192" s="39"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="39"/>
-      <c r="F192" s="39"/>
-      <c r="G192" s="39"/>
-      <c r="H192" s="39"/>
-      <c r="I192" s="39"/>
+      <c r="A192" s="45"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="45"/>
+      <c r="E192" s="45"/>
+      <c r="F192" s="45"/>
+      <c r="G192" s="45"/>
+      <c r="H192" s="45"/>
+      <c r="I192" s="45"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="39"/>
-      <c r="B193" s="39"/>
-      <c r="C193" s="39"/>
-      <c r="D193" s="39"/>
-      <c r="E193" s="39"/>
-      <c r="F193" s="39"/>
-      <c r="G193" s="39"/>
-      <c r="H193" s="39"/>
-      <c r="I193" s="39"/>
+      <c r="A193" s="45"/>
+      <c r="B193" s="45"/>
+      <c r="C193" s="45"/>
+      <c r="D193" s="45"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="45"/>
+      <c r="G193" s="45"/>
+      <c r="H193" s="45"/>
+      <c r="I193" s="45"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
-      <c r="C194" s="39"/>
-      <c r="D194" s="39"/>
-      <c r="E194" s="39"/>
-      <c r="F194" s="39"/>
-      <c r="G194" s="39"/>
-      <c r="H194" s="39"/>
-      <c r="I194" s="39"/>
+      <c r="A194" s="45"/>
+      <c r="B194" s="45"/>
+      <c r="C194" s="45"/>
+      <c r="D194" s="45"/>
+      <c r="E194" s="45"/>
+      <c r="F194" s="45"/>
+      <c r="G194" s="45"/>
+      <c r="H194" s="45"/>
+      <c r="I194" s="45"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="39"/>
-      <c r="D195" s="39"/>
-      <c r="E195" s="39"/>
-      <c r="F195" s="39"/>
-      <c r="G195" s="39"/>
-      <c r="H195" s="39"/>
-      <c r="I195" s="39"/>
+      <c r="A195" s="45"/>
+      <c r="B195" s="45"/>
+      <c r="C195" s="45"/>
+      <c r="D195" s="45"/>
+      <c r="E195" s="45"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="45"/>
+      <c r="H195" s="45"/>
+      <c r="I195" s="45"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="39"/>
-      <c r="B196" s="39"/>
-      <c r="C196" s="39"/>
-      <c r="D196" s="39"/>
-      <c r="E196" s="39"/>
-      <c r="F196" s="39"/>
-      <c r="G196" s="39"/>
-      <c r="H196" s="39"/>
-      <c r="I196" s="39"/>
+      <c r="A196" s="45"/>
+      <c r="B196" s="45"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="45"/>
+      <c r="E196" s="45"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="45"/>
+      <c r="H196" s="45"/>
+      <c r="I196" s="45"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="39"/>
-      <c r="B197" s="39"/>
-      <c r="C197" s="39"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
-      <c r="F197" s="39"/>
-      <c r="G197" s="39"/>
-      <c r="H197" s="39"/>
-      <c r="I197" s="39"/>
+      <c r="A197" s="45"/>
+      <c r="B197" s="45"/>
+      <c r="C197" s="45"/>
+      <c r="D197" s="45"/>
+      <c r="E197" s="45"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="45"/>
+      <c r="H197" s="45"/>
+      <c r="I197" s="45"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="39"/>
-      <c r="B198" s="39"/>
-      <c r="C198" s="39"/>
-      <c r="D198" s="39"/>
-      <c r="E198" s="39"/>
-      <c r="F198" s="39"/>
-      <c r="G198" s="39"/>
-      <c r="H198" s="39"/>
-      <c r="I198" s="39"/>
+      <c r="A198" s="45"/>
+      <c r="B198" s="45"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="45"/>
+      <c r="E198" s="45"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="45"/>
+      <c r="H198" s="45"/>
+      <c r="I198" s="45"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="39"/>
-      <c r="B199" s="39"/>
-      <c r="C199" s="39"/>
-      <c r="D199" s="39"/>
-      <c r="E199" s="39"/>
-      <c r="F199" s="39"/>
-      <c r="G199" s="39"/>
-      <c r="H199" s="39"/>
-      <c r="I199" s="39"/>
+      <c r="A199" s="45"/>
+      <c r="B199" s="45"/>
+      <c r="C199" s="45"/>
+      <c r="D199" s="45"/>
+      <c r="E199" s="45"/>
+      <c r="F199" s="45"/>
+      <c r="G199" s="45"/>
+      <c r="H199" s="45"/>
+      <c r="I199" s="45"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="39"/>
-      <c r="B200" s="39"/>
-      <c r="C200" s="39"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="39"/>
-      <c r="F200" s="39"/>
-      <c r="G200" s="39"/>
-      <c r="H200" s="39"/>
-      <c r="I200" s="39"/>
+      <c r="A200" s="45"/>
+      <c r="B200" s="45"/>
+      <c r="C200" s="45"/>
+      <c r="D200" s="45"/>
+      <c r="E200" s="45"/>
+      <c r="F200" s="45"/>
+      <c r="G200" s="45"/>
+      <c r="H200" s="45"/>
+      <c r="I200" s="45"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="39"/>
-      <c r="B201" s="39"/>
-      <c r="C201" s="39"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="39"/>
-      <c r="F201" s="39"/>
-      <c r="G201" s="39"/>
-      <c r="H201" s="39"/>
-      <c r="I201" s="39"/>
+      <c r="A201" s="45"/>
+      <c r="B201" s="45"/>
+      <c r="C201" s="45"/>
+      <c r="D201" s="45"/>
+      <c r="E201" s="45"/>
+      <c r="F201" s="45"/>
+      <c r="G201" s="45"/>
+      <c r="H201" s="45"/>
+      <c r="I201" s="45"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="39"/>
-      <c r="B202" s="39"/>
-      <c r="C202" s="39"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
-      <c r="F202" s="39"/>
-      <c r="G202" s="39"/>
-      <c r="H202" s="39"/>
-      <c r="I202" s="39"/>
+      <c r="A202" s="45"/>
+      <c r="B202" s="45"/>
+      <c r="C202" s="45"/>
+      <c r="D202" s="45"/>
+      <c r="E202" s="45"/>
+      <c r="F202" s="45"/>
+      <c r="G202" s="45"/>
+      <c r="H202" s="45"/>
+      <c r="I202" s="45"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="39"/>
-      <c r="B203" s="39"/>
-      <c r="C203" s="39"/>
-      <c r="D203" s="39"/>
-      <c r="E203" s="39"/>
-      <c r="F203" s="39"/>
-      <c r="G203" s="39"/>
-      <c r="H203" s="39"/>
-      <c r="I203" s="39"/>
+      <c r="A203" s="45"/>
+      <c r="B203" s="45"/>
+      <c r="C203" s="45"/>
+      <c r="D203" s="45"/>
+      <c r="E203" s="45"/>
+      <c r="F203" s="45"/>
+      <c r="G203" s="45"/>
+      <c r="H203" s="45"/>
+      <c r="I203" s="45"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="39"/>
-      <c r="B204" s="39"/>
-      <c r="C204" s="39"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
-      <c r="F204" s="39"/>
-      <c r="G204" s="39"/>
-      <c r="H204" s="39"/>
-      <c r="I204" s="39"/>
+      <c r="A204" s="45"/>
+      <c r="B204" s="45"/>
+      <c r="C204" s="45"/>
+      <c r="D204" s="45"/>
+      <c r="E204" s="45"/>
+      <c r="F204" s="45"/>
+      <c r="G204" s="45"/>
+      <c r="H204" s="45"/>
+      <c r="I204" s="45"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
-      <c r="C205" s="39"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
-      <c r="F205" s="39"/>
-      <c r="G205" s="39"/>
-      <c r="H205" s="39"/>
-      <c r="I205" s="39"/>
+      <c r="A205" s="45"/>
+      <c r="B205" s="45"/>
+      <c r="C205" s="45"/>
+      <c r="D205" s="45"/>
+      <c r="E205" s="45"/>
+      <c r="F205" s="45"/>
+      <c r="G205" s="45"/>
+      <c r="H205" s="45"/>
+      <c r="I205" s="45"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="39"/>
-      <c r="B206" s="39"/>
-      <c r="C206" s="39"/>
-      <c r="D206" s="39"/>
-      <c r="E206" s="39"/>
-      <c r="F206" s="39"/>
-      <c r="G206" s="39"/>
-      <c r="H206" s="39"/>
-      <c r="I206" s="39"/>
+      <c r="A206" s="45"/>
+      <c r="B206" s="45"/>
+      <c r="C206" s="45"/>
+      <c r="D206" s="45"/>
+      <c r="E206" s="45"/>
+      <c r="F206" s="45"/>
+      <c r="G206" s="45"/>
+      <c r="H206" s="45"/>
+      <c r="I206" s="45"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="39"/>
-      <c r="B207" s="39"/>
-      <c r="C207" s="39"/>
-      <c r="D207" s="39"/>
-      <c r="E207" s="39"/>
-      <c r="F207" s="39"/>
-      <c r="G207" s="39"/>
-      <c r="H207" s="39"/>
-      <c r="I207" s="39"/>
+      <c r="A207" s="45"/>
+      <c r="B207" s="45"/>
+      <c r="C207" s="45"/>
+      <c r="D207" s="45"/>
+      <c r="E207" s="45"/>
+      <c r="F207" s="45"/>
+      <c r="G207" s="45"/>
+      <c r="H207" s="45"/>
+      <c r="I207" s="45"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="39"/>
-      <c r="B208" s="39"/>
-      <c r="C208" s="39"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="39"/>
-      <c r="F208" s="39"/>
-      <c r="G208" s="39"/>
-      <c r="H208" s="39"/>
-      <c r="I208" s="39"/>
+      <c r="A208" s="45"/>
+      <c r="B208" s="45"/>
+      <c r="C208" s="45"/>
+      <c r="D208" s="45"/>
+      <c r="E208" s="45"/>
+      <c r="F208" s="45"/>
+      <c r="G208" s="45"/>
+      <c r="H208" s="45"/>
+      <c r="I208" s="45"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="39"/>
-      <c r="B209" s="39"/>
-      <c r="C209" s="39"/>
-      <c r="D209" s="39"/>
-      <c r="E209" s="39"/>
-      <c r="F209" s="39"/>
-      <c r="G209" s="39"/>
-      <c r="H209" s="39"/>
-      <c r="I209" s="39"/>
+      <c r="A209" s="45"/>
+      <c r="B209" s="45"/>
+      <c r="C209" s="45"/>
+      <c r="D209" s="45"/>
+      <c r="E209" s="45"/>
+      <c r="F209" s="45"/>
+      <c r="G209" s="45"/>
+      <c r="H209" s="45"/>
+      <c r="I209" s="45"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="39"/>
-      <c r="B210" s="39"/>
-      <c r="C210" s="39"/>
-      <c r="D210" s="39"/>
-      <c r="E210" s="39"/>
-      <c r="F210" s="39"/>
-      <c r="G210" s="39"/>
-      <c r="H210" s="39"/>
-      <c r="I210" s="39"/>
+      <c r="A210" s="45"/>
+      <c r="B210" s="45"/>
+      <c r="C210" s="45"/>
+      <c r="D210" s="45"/>
+      <c r="E210" s="45"/>
+      <c r="F210" s="45"/>
+      <c r="G210" s="45"/>
+      <c r="H210" s="45"/>
+      <c r="I210" s="45"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="39"/>
-      <c r="B211" s="39"/>
-      <c r="C211" s="39"/>
-      <c r="D211" s="39"/>
-      <c r="E211" s="39"/>
-      <c r="F211" s="39"/>
-      <c r="G211" s="39"/>
-      <c r="H211" s="39"/>
-      <c r="I211" s="39"/>
+      <c r="A211" s="45"/>
+      <c r="B211" s="45"/>
+      <c r="C211" s="45"/>
+      <c r="D211" s="45"/>
+      <c r="E211" s="45"/>
+      <c r="F211" s="45"/>
+      <c r="G211" s="45"/>
+      <c r="H211" s="45"/>
+      <c r="I211" s="45"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="39"/>
-      <c r="B212" s="39"/>
-      <c r="C212" s="39"/>
-      <c r="D212" s="39"/>
-      <c r="E212" s="39"/>
-      <c r="F212" s="39"/>
-      <c r="G212" s="39"/>
-      <c r="H212" s="39"/>
-      <c r="I212" s="39"/>
+      <c r="A212" s="45"/>
+      <c r="B212" s="45"/>
+      <c r="C212" s="45"/>
+      <c r="D212" s="45"/>
+      <c r="E212" s="45"/>
+      <c r="F212" s="45"/>
+      <c r="G212" s="45"/>
+      <c r="H212" s="45"/>
+      <c r="I212" s="45"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="39"/>
-      <c r="B213" s="39"/>
-      <c r="C213" s="39"/>
-      <c r="D213" s="39"/>
-      <c r="E213" s="39"/>
-      <c r="F213" s="39"/>
-      <c r="G213" s="39"/>
-      <c r="H213" s="39"/>
-      <c r="I213" s="39"/>
+      <c r="A213" s="45"/>
+      <c r="B213" s="45"/>
+      <c r="C213" s="45"/>
+      <c r="D213" s="45"/>
+      <c r="E213" s="45"/>
+      <c r="F213" s="45"/>
+      <c r="G213" s="45"/>
+      <c r="H213" s="45"/>
+      <c r="I213" s="45"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="39"/>
-      <c r="B214" s="39"/>
-      <c r="C214" s="39"/>
-      <c r="D214" s="39"/>
-      <c r="E214" s="39"/>
-      <c r="F214" s="39"/>
-      <c r="G214" s="39"/>
-      <c r="H214" s="39"/>
-      <c r="I214" s="39"/>
+      <c r="A214" s="45"/>
+      <c r="B214" s="45"/>
+      <c r="C214" s="45"/>
+      <c r="D214" s="45"/>
+      <c r="E214" s="45"/>
+      <c r="F214" s="45"/>
+      <c r="G214" s="45"/>
+      <c r="H214" s="45"/>
+      <c r="I214" s="45"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="39"/>
-      <c r="B215" s="39"/>
-      <c r="C215" s="39"/>
-      <c r="D215" s="39"/>
-      <c r="E215" s="39"/>
-      <c r="F215" s="39"/>
-      <c r="G215" s="39"/>
-      <c r="H215" s="39"/>
-      <c r="I215" s="39"/>
+      <c r="A215" s="45"/>
+      <c r="B215" s="45"/>
+      <c r="C215" s="45"/>
+      <c r="D215" s="45"/>
+      <c r="E215" s="45"/>
+      <c r="F215" s="45"/>
+      <c r="G215" s="45"/>
+      <c r="H215" s="45"/>
+      <c r="I215" s="45"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="39"/>
-      <c r="B216" s="39"/>
-      <c r="C216" s="39"/>
-      <c r="D216" s="39"/>
-      <c r="E216" s="39"/>
-      <c r="F216" s="39"/>
-      <c r="G216" s="39"/>
-      <c r="H216" s="39"/>
-      <c r="I216" s="39"/>
+      <c r="A216" s="45"/>
+      <c r="B216" s="45"/>
+      <c r="C216" s="45"/>
+      <c r="D216" s="45"/>
+      <c r="E216" s="45"/>
+      <c r="F216" s="45"/>
+      <c r="G216" s="45"/>
+      <c r="H216" s="45"/>
+      <c r="I216" s="45"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="39"/>
-      <c r="B217" s="39"/>
-      <c r="C217" s="39"/>
-      <c r="D217" s="39"/>
-      <c r="E217" s="39"/>
-      <c r="F217" s="39"/>
-      <c r="G217" s="39"/>
-      <c r="H217" s="39"/>
-      <c r="I217" s="39"/>
+      <c r="A217" s="45"/>
+      <c r="B217" s="45"/>
+      <c r="C217" s="45"/>
+      <c r="D217" s="45"/>
+      <c r="E217" s="45"/>
+      <c r="F217" s="45"/>
+      <c r="G217" s="45"/>
+      <c r="H217" s="45"/>
+      <c r="I217" s="45"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="39"/>
-      <c r="B218" s="39"/>
-      <c r="C218" s="39"/>
-      <c r="D218" s="39"/>
-      <c r="E218" s="39"/>
-      <c r="F218" s="39"/>
-      <c r="G218" s="39"/>
-      <c r="H218" s="39"/>
-      <c r="I218" s="39"/>
+      <c r="A218" s="45"/>
+      <c r="B218" s="45"/>
+      <c r="C218" s="45"/>
+      <c r="D218" s="45"/>
+      <c r="E218" s="45"/>
+      <c r="F218" s="45"/>
+      <c r="G218" s="45"/>
+      <c r="H218" s="45"/>
+      <c r="I218" s="45"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="39"/>
-      <c r="B219" s="39"/>
-      <c r="C219" s="39"/>
-      <c r="D219" s="39"/>
-      <c r="E219" s="39"/>
-      <c r="F219" s="39"/>
-      <c r="G219" s="39"/>
-      <c r="H219" s="39"/>
-      <c r="I219" s="39"/>
+      <c r="A219" s="45"/>
+      <c r="B219" s="45"/>
+      <c r="C219" s="45"/>
+      <c r="D219" s="45"/>
+      <c r="E219" s="45"/>
+      <c r="F219" s="45"/>
+      <c r="G219" s="45"/>
+      <c r="H219" s="45"/>
+      <c r="I219" s="45"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="39"/>
-      <c r="B220" s="39"/>
-      <c r="C220" s="39"/>
-      <c r="D220" s="39"/>
-      <c r="E220" s="39"/>
-      <c r="F220" s="39"/>
-      <c r="G220" s="39"/>
-      <c r="H220" s="39"/>
-      <c r="I220" s="39"/>
+      <c r="A220" s="45"/>
+      <c r="B220" s="45"/>
+      <c r="C220" s="45"/>
+      <c r="D220" s="45"/>
+      <c r="E220" s="45"/>
+      <c r="F220" s="45"/>
+      <c r="G220" s="45"/>
+      <c r="H220" s="45"/>
+      <c r="I220" s="45"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="39"/>
-      <c r="B221" s="39"/>
-      <c r="C221" s="39"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="39"/>
-      <c r="F221" s="39"/>
-      <c r="G221" s="39"/>
-      <c r="H221" s="39"/>
-      <c r="I221" s="39"/>
+      <c r="A221" s="45"/>
+      <c r="B221" s="45"/>
+      <c r="C221" s="45"/>
+      <c r="D221" s="45"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="45"/>
+      <c r="H221" s="45"/>
+      <c r="I221" s="45"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="39"/>
-      <c r="B222" s="39"/>
-      <c r="C222" s="39"/>
-      <c r="D222" s="39"/>
-      <c r="E222" s="39"/>
-      <c r="F222" s="39"/>
-      <c r="G222" s="39"/>
-      <c r="H222" s="39"/>
-      <c r="I222" s="39"/>
+      <c r="A222" s="45"/>
+      <c r="B222" s="45"/>
+      <c r="C222" s="45"/>
+      <c r="D222" s="45"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="45"/>
+      <c r="G222" s="45"/>
+      <c r="H222" s="45"/>
+      <c r="I222" s="45"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="39"/>
-      <c r="B223" s="39"/>
-      <c r="C223" s="39"/>
-      <c r="D223" s="39"/>
-      <c r="E223" s="39"/>
-      <c r="F223" s="39"/>
-      <c r="G223" s="39"/>
-      <c r="H223" s="39"/>
-      <c r="I223" s="39"/>
+      <c r="A223" s="45"/>
+      <c r="B223" s="45"/>
+      <c r="C223" s="45"/>
+      <c r="D223" s="45"/>
+      <c r="E223" s="45"/>
+      <c r="F223" s="45"/>
+      <c r="G223" s="45"/>
+      <c r="H223" s="45"/>
+      <c r="I223" s="45"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="39"/>
-      <c r="B224" s="39"/>
-      <c r="C224" s="39"/>
-      <c r="D224" s="39"/>
-      <c r="E224" s="39"/>
-      <c r="F224" s="39"/>
-      <c r="G224" s="39"/>
-      <c r="H224" s="39"/>
-      <c r="I224" s="39"/>
+      <c r="A224" s="45"/>
+      <c r="B224" s="45"/>
+      <c r="C224" s="45"/>
+      <c r="D224" s="45"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="45"/>
+      <c r="G224" s="45"/>
+      <c r="H224" s="45"/>
+      <c r="I224" s="45"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="39"/>
-      <c r="B225" s="39"/>
-      <c r="C225" s="39"/>
-      <c r="D225" s="39"/>
-      <c r="E225" s="39"/>
-      <c r="F225" s="39"/>
-      <c r="G225" s="39"/>
-      <c r="H225" s="39"/>
-      <c r="I225" s="39"/>
+      <c r="A225" s="45"/>
+      <c r="B225" s="45"/>
+      <c r="C225" s="45"/>
+      <c r="D225" s="45"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="45"/>
+      <c r="G225" s="45"/>
+      <c r="H225" s="45"/>
+      <c r="I225" s="45"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="39"/>
-      <c r="B226" s="39"/>
-      <c r="C226" s="39"/>
-      <c r="D226" s="39"/>
-      <c r="E226" s="39"/>
-      <c r="F226" s="39"/>
-      <c r="G226" s="39"/>
-      <c r="H226" s="39"/>
-      <c r="I226" s="39"/>
+      <c r="A226" s="45"/>
+      <c r="B226" s="45"/>
+      <c r="C226" s="45"/>
+      <c r="D226" s="45"/>
+      <c r="E226" s="45"/>
+      <c r="F226" s="45"/>
+      <c r="G226" s="45"/>
+      <c r="H226" s="45"/>
+      <c r="I226" s="45"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="39"/>
-      <c r="B227" s="39"/>
-      <c r="C227" s="39"/>
-      <c r="D227" s="39"/>
-      <c r="E227" s="39"/>
-      <c r="F227" s="39"/>
-      <c r="G227" s="39"/>
-      <c r="H227" s="39"/>
-      <c r="I227" s="39"/>
+      <c r="A227" s="45"/>
+      <c r="B227" s="45"/>
+      <c r="C227" s="45"/>
+      <c r="D227" s="45"/>
+      <c r="E227" s="45"/>
+      <c r="F227" s="45"/>
+      <c r="G227" s="45"/>
+      <c r="H227" s="45"/>
+      <c r="I227" s="45"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="39"/>
-      <c r="B228" s="39"/>
-      <c r="C228" s="39"/>
-      <c r="D228" s="39"/>
-      <c r="E228" s="39"/>
-      <c r="F228" s="39"/>
-      <c r="G228" s="39"/>
-      <c r="H228" s="39"/>
-      <c r="I228" s="39"/>
+      <c r="A228" s="45"/>
+      <c r="B228" s="45"/>
+      <c r="C228" s="45"/>
+      <c r="D228" s="45"/>
+      <c r="E228" s="45"/>
+      <c r="F228" s="45"/>
+      <c r="G228" s="45"/>
+      <c r="H228" s="45"/>
+      <c r="I228" s="45"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="39"/>
-      <c r="B229" s="39"/>
-      <c r="C229" s="39"/>
-      <c r="D229" s="39"/>
-      <c r="E229" s="39"/>
-      <c r="F229" s="39"/>
-      <c r="G229" s="39"/>
-      <c r="H229" s="39"/>
-      <c r="I229" s="39"/>
+      <c r="A229" s="45"/>
+      <c r="B229" s="45"/>
+      <c r="C229" s="45"/>
+      <c r="D229" s="45"/>
+      <c r="E229" s="45"/>
+      <c r="F229" s="45"/>
+      <c r="G229" s="45"/>
+      <c r="H229" s="45"/>
+      <c r="I229" s="45"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="39"/>
-      <c r="B230" s="39"/>
-      <c r="C230" s="39"/>
-      <c r="D230" s="39"/>
-      <c r="E230" s="39"/>
-      <c r="F230" s="39"/>
-      <c r="G230" s="39"/>
-      <c r="H230" s="39"/>
-      <c r="I230" s="39"/>
+      <c r="A230" s="45"/>
+      <c r="B230" s="45"/>
+      <c r="C230" s="45"/>
+      <c r="D230" s="45"/>
+      <c r="E230" s="45"/>
+      <c r="F230" s="45"/>
+      <c r="G230" s="45"/>
+      <c r="H230" s="45"/>
+      <c r="I230" s="45"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="39"/>
-      <c r="B231" s="39"/>
-      <c r="C231" s="39"/>
-      <c r="D231" s="39"/>
-      <c r="E231" s="39"/>
-      <c r="F231" s="39"/>
-      <c r="G231" s="39"/>
-      <c r="H231" s="39"/>
-      <c r="I231" s="39"/>
+      <c r="A231" s="45"/>
+      <c r="B231" s="45"/>
+      <c r="C231" s="45"/>
+      <c r="D231" s="45"/>
+      <c r="E231" s="45"/>
+      <c r="F231" s="45"/>
+      <c r="G231" s="45"/>
+      <c r="H231" s="45"/>
+      <c r="I231" s="45"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="39"/>
-      <c r="B232" s="39"/>
-      <c r="C232" s="39"/>
-      <c r="D232" s="39"/>
-      <c r="E232" s="39"/>
-      <c r="F232" s="39"/>
-      <c r="G232" s="39"/>
-      <c r="H232" s="39"/>
-      <c r="I232" s="39"/>
+      <c r="A232" s="45"/>
+      <c r="B232" s="45"/>
+      <c r="C232" s="45"/>
+      <c r="D232" s="45"/>
+      <c r="E232" s="45"/>
+      <c r="F232" s="45"/>
+      <c r="G232" s="45"/>
+      <c r="H232" s="45"/>
+      <c r="I232" s="45"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="39"/>
-      <c r="B233" s="39"/>
-      <c r="C233" s="39"/>
-      <c r="D233" s="39"/>
-      <c r="E233" s="39"/>
-      <c r="F233" s="39"/>
-      <c r="G233" s="39"/>
-      <c r="H233" s="39"/>
-      <c r="I233" s="39"/>
+      <c r="A233" s="45"/>
+      <c r="B233" s="45"/>
+      <c r="C233" s="45"/>
+      <c r="D233" s="45"/>
+      <c r="E233" s="45"/>
+      <c r="F233" s="45"/>
+      <c r="G233" s="45"/>
+      <c r="H233" s="45"/>
+      <c r="I233" s="45"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="39"/>
-      <c r="B234" s="39"/>
-      <c r="C234" s="39"/>
-      <c r="D234" s="39"/>
-      <c r="E234" s="39"/>
-      <c r="F234" s="39"/>
-      <c r="G234" s="39"/>
-      <c r="H234" s="39"/>
-      <c r="I234" s="39"/>
+      <c r="A234" s="45"/>
+      <c r="B234" s="45"/>
+      <c r="C234" s="45"/>
+      <c r="D234" s="45"/>
+      <c r="E234" s="45"/>
+      <c r="F234" s="45"/>
+      <c r="G234" s="45"/>
+      <c r="H234" s="45"/>
+      <c r="I234" s="45"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="39"/>
-      <c r="B235" s="39"/>
-      <c r="C235" s="39"/>
-      <c r="D235" s="39"/>
-      <c r="E235" s="39"/>
-      <c r="F235" s="39"/>
-      <c r="G235" s="39"/>
-      <c r="H235" s="39"/>
-      <c r="I235" s="39"/>
+      <c r="A235" s="45"/>
+      <c r="B235" s="45"/>
+      <c r="C235" s="45"/>
+      <c r="D235" s="45"/>
+      <c r="E235" s="45"/>
+      <c r="F235" s="45"/>
+      <c r="G235" s="45"/>
+      <c r="H235" s="45"/>
+      <c r="I235" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="235">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A21:I21"/>
@@ -7496,15 +7577,6 @@
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:I30"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="A33:I33"/>
